--- a/biology/Botanique/Xavier-Constant_Chatenier/Xavier-Constant_Chatenier.xlsx
+++ b/biology/Botanique/Xavier-Constant_Chatenier/Xavier-Constant_Chatenier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xavier-Constant Chatenier, né le 18 avril 1849 à Miribel (Drôme) et mort le 6 mars 1926 dans la même ville, était un enseignant et botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut instituteur, nommé en 1883, et directeur de l'école primaire de Bourg-de-Péage, poste qu'il occupa pendant 22 ans.
 Taxinomiste éminent, il fit ses recherches principalement dans la Drôme, où il a découvert de nouvelles espèces : par exemple Asplenium lepidum C.Presl subsp. pulverulentum Christ &amp; Chatenier ou Cotoneaster delphinensis Chatenier, 1923.
@@ -546,13 +560,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sélections d'articles
-M. Constant Chatenier, Observations botaniques, 1885-1887
+          <t>Sélections d'articles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>M. Constant Chatenier, Observations botaniques, 1885-1887
 M. Constant Chatenier, « Esquisse De La Flore De Lus-La-Croix-Haute (Drome) », Bulletin de la Société Botanique de France, vol. 44, no sup1,‎ janvier 1897, p. CXXXV–CXLVIII (ISSN 0037-8941, DOI 10.1080/00378941.1897.10839655, lire en ligne, consulté le 2 décembre 2020)
 M. Constant Chatenier, « Plantes nouvelles, rares ou critiques du bassin moyen du Rhône », Bulletin de la Société Botanique de France, vol. 69, no 5,‎ 1er janvier 1922, p. 710–718 (ISSN 0037-8941, DOI 10.1080/00378941.1922.10833493, lire en ligne, consulté le 2 décembre 2020)
-M. Chatenier, « Lettre à M. Malinvaud », Bulletin de la Société Botanique de France, vol. 46, no 4,‎ 1er janvier 1899, p. 251–251 (ISSN 0037-8941, DOI 10.1080/00378941.1899.10831734, lire en ligne, consulté le 2 décembre 2020)
-Espèces décrites
-Liste des espèces décrites par Chatenier[1] :
+M. Chatenier, « Lettre à M. Malinvaud », Bulletin de la Société Botanique de France, vol. 46, no 4,‎ 1er janvier 1899, p. 251–251 (ISSN 0037-8941, DOI 10.1080/00378941.1899.10831734, lire en ligne, consulté le 2 décembre 2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Xavier-Constant_Chatenier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xavier-Constant_Chatenier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces décrites</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des espèces décrites par Chatenier :
 Anthyllis sericata Chatenier ex Rouy, Fl. France [Rouy &amp; Foucaud] 4: 287, in syn. (1897).
 Asplenium pulverulentum Chatenier, Bull. Soc. Bot. France 58: 348 (1911).
 Carex strigosula Chatenier, Bull. Soc. Bot. France 58: 347, hybr. (1911).
@@ -576,37 +629,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Xavier-Constant_Chatenier</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Xavier-Constant_Chatenier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Société botanique de France : membre 1890., 1890
 Société botanique de Lyon : Membre 1900., 1900
 Société d'archéologie, d'histoire et de géographie de la Drôme : membre titulaire
 Société des sciences naturelles de la Drôme : membre fondateur 1887., 1887
-Société linnéenne de Lyon : Membre 1900., 1900[2]</t>
+Société linnéenne de Lyon : Membre 1900., 1900</t>
         </is>
       </c>
     </row>
